--- a/WebApplication1/Danhmuc/mauupload_hanghoa.xlsx
+++ b/WebApplication1/Danhmuc/mauupload_hanghoa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -62,28 +62,28 @@
     <t>modified</t>
   </si>
   <si>
-    <t>chai</t>
-  </si>
-  <si>
-    <t>laubo</t>
-  </si>
-  <si>
-    <t>Lẩu bò</t>
-  </si>
-  <si>
-    <t>nồi</t>
-  </si>
-  <si>
-    <t>Lẩu cá chép</t>
-  </si>
-  <si>
-    <t>laucachep</t>
-  </si>
-  <si>
-    <t>lauthapcam</t>
-  </si>
-  <si>
-    <t>Lẩu thập cẩm</t>
+    <t>dautamhanh</t>
+  </si>
+  <si>
+    <t>Đậu tẩm hành</t>
+  </si>
+  <si>
+    <t>đĩa</t>
+  </si>
+  <si>
+    <t>thitbachinuong</t>
+  </si>
+  <si>
+    <t>Thịt ba chỉ nướng</t>
+  </si>
+  <si>
+    <t>nemtai</t>
+  </si>
+  <si>
+    <t>Nem tai</t>
+  </si>
+  <si>
+    <t>cauthanhsanpham</t>
   </si>
 </sst>
 </file>
@@ -436,19 +436,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,117 +477,129 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="H2">
-        <v>300000</v>
+        <v>30000</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>2012757</v>
-      </c>
-      <c r="K2" s="1">
-        <v>45414</v>
       </c>
       <c r="L2" s="1">
         <v>45414</v>
       </c>
+      <c r="M2" s="1">
+        <v>45414</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H3">
-        <v>350000</v>
+        <v>60000</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>2012757</v>
-      </c>
-      <c r="K3" s="1">
-        <v>45414</v>
       </c>
       <c r="L3" s="1">
         <v>45414</v>
       </c>
+      <c r="M3" s="1">
+        <v>45414</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H4">
-        <v>350000</v>
+        <v>50000</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>2012757</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>45414</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>45414</v>
       </c>
     </row>
